--- a/TestResults/V175_Trace_HW_1-5ms_tick_1-5ms_update.xlsx
+++ b/TestResults/V175_Trace_HW_1-5ms_tick_1-5ms_update.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="735" windowWidth="24435" windowHeight="10425"/>
+    <workbookView xWindow="600" yWindow="735" windowWidth="24240" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="V175_Trace_HW_1-5ms_tick_1-5ms_" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>CAN Filter Hit Rates</t>
   </si>
@@ -245,12 +245,48 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Segment 1 (100 ms cycle)</t>
+  </si>
+  <si>
+    <t>Segment 2 (1000 ms cycle)</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Misses</t>
+  </si>
+  <si>
+    <t>Both segments</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Simulation accuracy</t>
+  </si>
+  <si>
+    <t>Total In Trace</t>
+  </si>
+  <si>
+    <t># of message</t>
+  </si>
+  <si>
+    <t># of messages</t>
+  </si>
+  <si>
+    <t>Hardware Hits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -569,7 +605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -684,8 +720,320 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -728,13 +1076,69 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -774,6 +1178,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -786,6 +1191,207 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'V175_Trace_HW_1-5ms_tick_1-5ms_'!$A$95:$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Segment 1 (100 ms cycle)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Segment 2 (1000 ms cycle)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Both segments</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'V175_Trace_HW_1-5ms_tick_1-5ms_'!$C$95:$C$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97652214186469055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98005991104118129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'V175_Trace_HW_1-5ms_tick_1-5ms_'!$A$95:$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Segment 1 (100 ms cycle)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Segment 2 (1000 ms cycle)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Both segments</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'V175_Trace_HW_1-5ms_tick_1-5ms_'!$G$95:$G$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97651501656631867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99995983935742971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98004780780053857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="126183680"/>
+        <c:axId val="129904640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="126183680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129904640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="129904640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126183680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1075,13 +1681,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1206,7 +1821,7 @@
         <v>6230</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1214,7 +1829,7 @@
         <v>6228</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1222,7 +1837,7 @@
         <v>6229</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1230,7 +1845,7 @@
         <v>6229</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1238,7 +1853,7 @@
         <v>6229</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1246,7 +1861,7 @@
         <v>6229</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1254,7 +1869,7 @@
         <v>6229</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1262,7 +1877,7 @@
         <v>6229</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1270,7 +1885,7 @@
         <v>6229</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1278,7 +1893,7 @@
         <v>6229</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1289,8 +1904,12 @@
         <f>SUM(B5:B26)</f>
         <v>137049</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f>SUM(B95:D95)</f>
+        <v>140345.97652214186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1298,7 +1917,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1306,7 +1925,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1314,7 +1933,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1322,7 +1941,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1330,7 +1949,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1722,7 +2341,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>69</v>
       </c>
@@ -1730,7 +2349,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>70</v>
       </c>
@@ -1738,7 +2357,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>71</v>
       </c>
@@ -1746,7 +2365,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>72</v>
       </c>
@@ -1754,7 +2373,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>73</v>
       </c>
@@ -1762,7 +2381,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>74</v>
       </c>
@@ -1773,21 +2392,222 @@
         <f>SUM(B27:B86)</f>
         <v>24899</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="3">
+        <f>D86/$I86</f>
+        <v>0.99991968194048431</v>
+      </c>
+      <c r="H86" s="3">
+        <f>B96/$I86</f>
+        <v>0.99995984097024215</v>
+      </c>
+      <c r="I86">
+        <f>SUM(B96:D96)</f>
+        <v>24901</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>76</v>
       </c>
       <c r="B88">
         <v>161948</v>
       </c>
+      <c r="D88">
+        <v>161948</v>
+      </c>
+      <c r="E88" s="3" t="e">
+        <f>D88/$I88</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F88">
+        <f>SUM(F1:F86)</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="3" t="e">
+        <f>F88/$I88</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I88">
+        <f>SUM(F1:G86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G92" s="11"/>
+      <c r="H92" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I92" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E93" s="14"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G94" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95" s="7">
+        <v>137050</v>
+      </c>
+      <c r="C95" s="8">
+        <f>B95/$H95</f>
+        <v>0.97652214186469055</v>
+      </c>
+      <c r="D95" s="7">
+        <v>3295</v>
+      </c>
+      <c r="E95" s="8">
+        <f>D95/$H95</f>
+        <v>2.3477858135309417E-2</v>
+      </c>
+      <c r="F95" s="7">
+        <v>137049</v>
+      </c>
+      <c r="G95" s="8">
+        <f>F95/$H95</f>
+        <v>0.97651501656631867</v>
+      </c>
+      <c r="H95" s="5">
+        <f>B95+D95</f>
+        <v>140345</v>
+      </c>
+      <c r="I95" s="6">
+        <f>C95-G95</f>
+        <v>7.1252983718794738E-6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="23">
+        <v>24900</v>
+      </c>
+      <c r="C96" s="24">
+        <f t="shared" ref="C96:C97" si="0">B96/$H96</f>
+        <v>1</v>
+      </c>
+      <c r="D96" s="23">
+        <v>0</v>
+      </c>
+      <c r="E96" s="24">
+        <f t="shared" ref="E96:E97" si="1">D96/$H96</f>
+        <v>0</v>
+      </c>
+      <c r="F96" s="23">
+        <v>24899</v>
+      </c>
+      <c r="G96" s="24">
+        <f t="shared" ref="G96:G97" si="2">F96/$H96</f>
+        <v>0.99995983935742971</v>
+      </c>
+      <c r="H96" s="25">
+        <f>B96+D96</f>
+        <v>24900</v>
+      </c>
+      <c r="I96" s="26">
+        <f t="shared" ref="I96:I97" si="3">C96-G96</f>
+        <v>4.0160642570286065E-5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97" s="28">
+        <f>SUM(B95:B96)</f>
+        <v>161950</v>
+      </c>
+      <c r="C97" s="29">
+        <f t="shared" si="0"/>
+        <v>0.98005991104118129</v>
+      </c>
+      <c r="D97" s="28">
+        <f>SUM(D95:D96)</f>
+        <v>3295</v>
+      </c>
+      <c r="E97" s="29">
+        <f t="shared" si="1"/>
+        <v>1.9940088958818724E-2</v>
+      </c>
+      <c r="F97" s="28">
+        <f>SUM(F95:F96)</f>
+        <v>161948</v>
+      </c>
+      <c r="G97" s="29">
+        <f t="shared" si="2"/>
+        <v>0.98004780780053857</v>
+      </c>
+      <c r="H97" s="30">
+        <f>B97+D97</f>
+        <v>165245</v>
+      </c>
+      <c r="I97" s="31">
+        <f t="shared" si="3"/>
+        <v>1.2103240642713509E-5</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F92:G93"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>